--- a/Surat Jalan/Surat Jalan TEMPLATE.xlsx
+++ b/Surat Jalan/Surat Jalan TEMPLATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Surat Jalan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A41D537-CEBA-4FC9-A19C-B707756B4EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F2F102-A238-4B57-982E-2D0CD152F59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -867,7 +867,7 @@
   <dimension ref="B1:P54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="N11" sqref="N11:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Surat Jalan/Surat Jalan TEMPLATE.xlsx
+++ b/Surat Jalan/Surat Jalan TEMPLATE.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Surat Jalan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F2F102-A238-4B57-982E-2D0CD152F59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F43BF6-C348-4FD4-9EB6-0B548279E693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Label" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
   <si>
     <t>SURAT JALAN</t>
   </si>
@@ -104,27 +102,6 @@
   </si>
   <si>
     <t>Koli</t>
-  </si>
-  <si>
-    <t>Bpk ROBIN</t>
-  </si>
-  <si>
-    <t>08112343390</t>
-  </si>
-  <si>
-    <t>Cluster Sariwates C9</t>
-  </si>
-  <si>
-    <t>Ds. Tanjungsari Karangpawitan</t>
-  </si>
-  <si>
-    <t>Garut</t>
-  </si>
-  <si>
-    <t>Jawa Barat</t>
-  </si>
-  <si>
-    <t>Telepon</t>
   </si>
 </sst>
 </file>
@@ -134,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,13 +159,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -425,7 +395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -489,10 +459,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -518,6 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -527,7 +494,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -542,21 +512,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -902,10 +859,10 @@
       <c r="L1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
     </row>
     <row r="2" spans="2:16" ht="15.75" customHeight="1">
       <c r="B2" t="s">
@@ -920,16 +877,16 @@
       <c r="L2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="64"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="24"/>
       <c r="E3" s="19"/>
       <c r="K3" t="s">
@@ -938,26 +895,26 @@
       <c r="L3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="62"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" customHeight="1">
       <c r="F4" s="16"/>
       <c r="L4" s="17"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
     </row>
     <row r="5" spans="2:16" ht="15.75" customHeight="1">
       <c r="F5" s="16"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" customHeight="1">
       <c r="B6" t="s">
@@ -967,7 +924,7 @@
       <c r="D6" s="25"/>
       <c r="E6" s="15"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="52"/>
+      <c r="M6" s="48"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
@@ -985,44 +942,44 @@
       <c r="L7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="52"/>
+      <c r="M7" s="48"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="2:16" ht="13.5" customHeight="1"/>
     <row r="9" spans="2:16">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="44" t="s">
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="57" t="s">
+      <c r="N9" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="59"/>
+      <c r="O9" s="62"/>
     </row>
     <row r="10" spans="2:16" ht="10.5" customHeight="1">
       <c r="B10" s="9"/>
-      <c r="C10" s="45"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="45"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1045,8 +1002,8 @@
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="61"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="59"/>
     </row>
     <row r="12" spans="2:16" ht="15.75">
       <c r="B12" s="10"/>
@@ -1058,8 +1015,8 @@
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="61"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="59"/>
     </row>
     <row r="13" spans="2:16" ht="15.75">
       <c r="B13" s="10"/>
@@ -1071,17 +1028,17 @@
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="61"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="59"/>
     </row>
     <row r="14" spans="2:16" ht="15.75" customHeight="1">
       <c r="B14" s="10"/>
       <c r="C14" s="3"/>
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="66"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
     </row>
     <row r="15" spans="2:16" ht="9.75" customHeight="1">
       <c r="B15" s="32"/>
@@ -1145,7 +1102,7 @@
       <c r="C18" s="3"/>
       <c r="E18" s="4"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="43"/>
+      <c r="G18" s="39"/>
       <c r="I18" s="8"/>
       <c r="O18" s="4"/>
     </row>
@@ -1197,12 +1154,12 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="12" customHeight="1">
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
       <c r="M26" s="23"/>
     </row>
     <row r="27" spans="2:16" ht="36.75" customHeight="1">
@@ -1230,13 +1187,13 @@
       <c r="L29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="54" t="str">
+      <c r="M29" s="50" t="str">
         <f t="shared" ref="M29:M35" si="0">IF(ISBLANK(M1),"",M1)</f>
         <v/>
       </c>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" customHeight="1">
       <c r="B30" t="s">
@@ -1254,20 +1211,20 @@
       <c r="L30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M30" s="54" t="str">
+      <c r="M30" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
     </row>
     <row r="31" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="53" t="str">
+      <c r="C31" s="52"/>
+      <c r="D31" s="49" t="str">
         <f>IF(ISBLANK(D3),"",D3)</f>
         <v/>
       </c>
@@ -1278,36 +1235,36 @@
       <c r="L31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M31" s="54" t="str">
+      <c r="M31" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
     </row>
     <row r="32" spans="2:16" ht="15.75" customHeight="1">
-      <c r="D32" s="51"/>
+      <c r="D32" s="47"/>
       <c r="F32" s="16"/>
       <c r="L32" s="17"/>
-      <c r="M32" s="54" t="str">
+      <c r="M32" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" customHeight="1">
       <c r="F33" s="16"/>
       <c r="L33" s="17"/>
-      <c r="M33" s="54" t="str">
+      <c r="M33" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
     </row>
     <row r="34" spans="2:16" ht="15.75" customHeight="1">
       <c r="B34" t="s">
@@ -1320,19 +1277,19 @@
       <c r="D34" s="25"/>
       <c r="E34" s="15"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="54" t="str">
+      <c r="M34" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
     </row>
     <row r="35" spans="2:16" ht="15.75" customHeight="1">
       <c r="B35" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="53" t="str">
+      <c r="C35" s="49" t="str">
         <f>IF(ISBLANK(C7),"",C7)</f>
         <v/>
       </c>
@@ -1344,49 +1301,49 @@
       <c r="L35" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M35" s="54" t="str">
+      <c r="M35" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
     </row>
     <row r="36" spans="2:16" ht="13.5" customHeight="1">
-      <c r="C36" s="50"/>
+      <c r="C36" s="46"/>
     </row>
     <row r="37" spans="2:16">
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="57" t="s">
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="44" t="s">
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N37" s="57" t="s">
+      <c r="N37" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="59"/>
+      <c r="O37" s="62"/>
     </row>
     <row r="38" spans="2:16" ht="10.5" customHeight="1">
       <c r="B38" s="9"/>
-      <c r="C38" s="45"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="45"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="41"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -1421,11 +1378,11 @@
         <f>IF(ISBLANK(M11),"",M11)</f>
         <v/>
       </c>
-      <c r="N39" s="60" t="str">
+      <c r="N39" s="58" t="str">
         <f>IF(ISBLANK(N11),"",N11)</f>
         <v/>
       </c>
-      <c r="O39" s="61"/>
+      <c r="O39" s="59"/>
     </row>
     <row r="40" spans="2:16" ht="15.75">
       <c r="B40" s="10" t="str">
@@ -1449,11 +1406,11 @@
         <f>IF(ISBLANK(M12),"",M12)</f>
         <v/>
       </c>
-      <c r="N40" s="60" t="str">
+      <c r="N40" s="58" t="str">
         <f>IF(ISBLANK(N12),"",N12)</f>
         <v/>
       </c>
-      <c r="O40" s="61"/>
+      <c r="O40" s="59"/>
     </row>
     <row r="41" spans="2:16" ht="15.75">
       <c r="B41" s="10" t="str">
@@ -1477,11 +1434,11 @@
         <f t="shared" ref="M41:M42" si="4">IF(ISBLANK(M13),"",M13)</f>
         <v/>
       </c>
-      <c r="N41" s="60" t="str">
+      <c r="N41" s="58" t="str">
         <f t="shared" ref="N41:N42" si="5">IF(ISBLANK(N13),"",N13)</f>
         <v/>
       </c>
-      <c r="O41" s="61"/>
+      <c r="O41" s="59"/>
     </row>
     <row r="42" spans="2:16" ht="15.75" customHeight="1">
       <c r="B42" s="10" t="str">
@@ -1503,14 +1460,14 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N42" s="60" t="str">
+      <c r="N42" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O42" s="61"/>
+      <c r="O42" s="59"/>
     </row>
     <row r="43" spans="2:16" ht="9.75" customHeight="1">
-      <c r="B43" s="48" t="str">
+      <c r="B43" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1534,7 +1491,7 @@
         <f t="shared" ref="M43" si="6">IF(ISBLANK(M15),"",M15)</f>
         <v/>
       </c>
-      <c r="N43" s="49" t="str">
+      <c r="N43" s="45" t="str">
         <f>IF(ISBLANK(N15),"",N15)</f>
         <v/>
       </c>
@@ -1585,7 +1542,7 @@
       <c r="C46" s="3"/>
       <c r="E46" s="4"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="43"/>
+      <c r="G46" s="39"/>
       <c r="I46" s="8"/>
       <c r="O46" s="4"/>
     </row>
@@ -1640,16 +1597,32 @@
       </c>
     </row>
     <row r="54" spans="2:14" ht="12" customHeight="1">
-      <c r="C54" s="55" t="s">
+      <c r="C54" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
       <c r="M54" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:L37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="B3:C3"/>
@@ -1663,136 +1636,8 @@
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:L37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" ht="33.75">
-      <c r="A2" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-    </row>
-    <row r="3" spans="1:6" ht="33.75">
-      <c r="A3" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-    </row>
-    <row r="4" spans="1:6" ht="33.75">
-      <c r="A4" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-    </row>
-    <row r="5" spans="1:6" ht="33.75">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-    </row>
-    <row r="6" spans="1:6" ht="33.75">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-    </row>
-    <row r="7" spans="1:6" ht="33.75">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-  </mergeCells>
-  <pageMargins left="0.11811023622047245" right="0.70866141732283472" top="0.15748031496062992" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>